--- a/학습자료/연표/사건 순서.xlsx
+++ b/학습자료/연표/사건 순서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
   <si>
     <t>연도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,122 @@
   </si>
   <si>
     <t>통일 신라 중앙 관제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후백제 건국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후고구려 건국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕건의 나주 점령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려 건국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발해 멸망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공산 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고창 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대광현 귀순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견훤 귀순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경순왕 귀순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일리천 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후삼국통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보당의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조위총의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교종 계통 승려의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망이, 망소이의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주 관노의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김사미, 효심의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만적의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명, 계발의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이비, 패좌의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최광수의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정중부 집권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경대승 집권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이의민 집권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최충헌 집권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우 집권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연년 형제의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무신정권 반란 민란</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,13 +508,51 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B3A13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -415,12 +569,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,644 +865,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>395</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>396</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>398</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>400</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>404</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>407</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>410</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>433</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>455</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>493</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>553</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>554</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>612</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>645</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>648</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>660</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>668</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>670</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>676</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>900</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>901</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>903</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>918</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>926</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>927</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>930</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>934</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>935</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>935</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>936</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1173</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1174</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1174</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1174</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1176</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1179</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1182</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1183</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1193</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>1196</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1198</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1202</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>1217</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1219</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1237</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/연표/사건 순서.xlsx
+++ b/학습자료/연표/사건 순서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="175">
   <si>
     <t>연도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,222 @@
   </si>
   <si>
     <t>무신정권 반란 민란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜군의 침략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산진 전투(정발)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동래성 전투(송상현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상주 전투(이일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충주 탄금대 전투(신립)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한양 함락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥포 해전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사천 해전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평양성 함락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선조, 의주 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한산도 대첩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이치 권율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1592년 4월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1592년 5월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1592년 6월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1592년 7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금산 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주 대첩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평양성 탈환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벡제관 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행주 대첩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주성 2차 혈전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련도감 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선조의 환도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽학의 난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정유재란 발발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠천량 해전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직산 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명량 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노량 해전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1592년 10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1593년 1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1593년 2월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1593년 6월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1593년 8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1593년 10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1596년 7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1597년 7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1597년 9월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1598년 11월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임진왜란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15세기 중엽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16세기 초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방군 수포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16세기 중엽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군적 수포제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영조 26년 1750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>균역법 실시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호포제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥선대원군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군역 제도의 변천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,11 +1081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69:C84"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111:C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1804,6 +2020,358 @@
         <v>120</v>
       </c>
     </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
